--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,30 +83,6 @@
   </si>
   <si>
     <t>看thinkingJava到100页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看thinkingJava到180页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主持晨会、查看日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午和小一确认项目原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看thinkingJava到240页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理云谷项目管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进小一修改的原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,14 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,7 +477,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>42997</v>
+        <v>43024</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -521,80 +498,6 @@
       </c>
       <c r="D3" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>42999</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="9月" sheetId="1" r:id="rId1"/>
+    <sheet name="10月" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,6 +22,31 @@
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有就写，没有可以不填
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +108,10 @@
   </si>
   <si>
     <t>看thinkingJava到100页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +147,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -446,19 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,37 +509,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43024</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
